--- a/public/template_excel/template_nghi_phep_di_tre_ve_som.xlsx
+++ b/public/template_excel/template_nghi_phep_di_tre_ve_som.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\FESP\fe-service-portal\public\template_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139A66D6-F502-40B4-9236-5CBB3DD4DF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D515E58-8F91-4FF1-8927-DF6B311970A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>Bộ phận</t>
   </si>
@@ -104,6 +104,79 @@
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t>WO</t>
+  </si>
+  <si>
+    <t>Nghỉ cưới</t>
+  </si>
+  <si>
+    <t>Nghỉ tai nạn lao động</t>
+  </si>
+  <si>
+    <t>Nghỉ vợ sinh</t>
+  </si>
+  <si>
+    <t>Nghỉ đẻ</t>
+  </si>
+  <si>
+    <t>Nghỉ bù</t>
+  </si>
+  <si>
+    <t>Nghỉ tang lễ</t>
+  </si>
+  <si>
+    <t>Làm việc ở ngoài</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>Staff, OP,..</t>
+  </si>
+  <si>
+    <t>AL, MC,…</t>
+  </si>
+  <si>
+    <t>CN, S, C,..</t>
+  </si>
+  <si>
+    <t>Production, QA,..</t>
+  </si>
+  <si>
+    <t>yyyy-MM-dd HH:mm
+-
+2025-09-30 08:00</t>
+  </si>
+  <si>
+    <t>yyyy-MM-dd HH:mm
+-
+2025-09-30 17:00</t>
+  </si>
+  <si>
+    <t>xxx01</t>
   </si>
 </sst>
 </file>
@@ -111,9 +184,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +198,30 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -177,18 +274,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -474,20 +580,20 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="39.140625" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="2" customWidth="1"/>
@@ -495,78 +601,75 @@
     <col min="15" max="15" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="7"/>
-      <c r="N1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>22757</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="K2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8">
-        <v>45913.591666666667</v>
-      </c>
-      <c r="H2" s="8">
-        <v>45913.591666666667</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="5" t="s">
@@ -574,15 +677,40 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="K3" s="5" t="s">
+      <c r="A3" s="3">
+        <v>22757</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6">
+        <v>45915.333333333336</v>
+      </c>
+      <c r="H3" s="6">
+        <v>45930.708333333336</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="O3" s="5" t="s">
@@ -592,21 +720,16 @@
     <row r="4" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>15</v>
+      <c r="N4" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>23</v>
@@ -615,519 +738,326 @@
     <row r="5" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
+      <c r="N5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="L6" s="3"/>
+      <c r="N6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
+      <c r="N7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
+      <c r="N8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
+      <c r="N9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
+      <c r="N10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
+      <c r="N11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
   </sheetData>
@@ -1139,24 +1069,24 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{206B846F-62AB-412D-B5C2-ECD98ACC4D35}">
           <x14:formula1>
             <xm:f>Sheet2!$C$2:$C$20</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>E3:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ABD913FE-FFA9-495D-B0E1-FCE70496BEED}">
           <x14:formula1>
             <xm:f>Sheet2!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2</xm:sqref>
+          <xm:sqref>F3:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8513B887-C285-452E-95A6-735F19A2CB84}">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C50 C2</xm:sqref>
+          <xm:sqref>C3:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1166,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE0BBBB-CCBE-4666-ABA4-CCD817BABA78}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1192,39 +1122,73 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/template_excel/template_nghi_phep_di_tre_ve_som.xlsx
+++ b/public/template_excel/template_nghi_phep_di_tre_ve_som.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\FESP\fe-service-portal\public\template_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D515E58-8F91-4FF1-8927-DF6B311970A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB97A756-73A7-4DFF-A2CB-9FF58A7EB417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Bộ phận</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Lý do</t>
   </si>
   <si>
-    <t>Nguyễn Văn Việt</t>
-  </si>
-  <si>
     <t>MIS</t>
   </si>
   <si>
@@ -98,12 +95,6 @@
   </si>
   <si>
     <t>Nghỉ ốm</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>abc</t>
   </si>
   <si>
     <t>MC</t>
@@ -288,13 +279,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,7 +571,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -603,37 +594,37 @@
   <sheetData>
     <row r="1" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="N1" s="9" t="s">
+      <c r="L1" s="11"/>
+      <c r="N1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="9"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -663,58 +654,41 @@
       <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="G3" s="6">
+        <v>25569.333333333332</v>
+      </c>
+      <c r="H3" s="6">
+        <v>25569.708333333332</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="K3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>22757</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6">
-        <v>45915.333333333336</v>
-      </c>
-      <c r="H3" s="6">
-        <v>45930.708333333336</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="O3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -722,17 +696,17 @@
       <c r="B4" s="3"/>
       <c r="D4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="K4" s="11" t="s">
-        <v>16</v>
+      <c r="K4" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -740,11 +714,11 @@
       <c r="B5" s="3"/>
       <c r="D5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="N5" s="10" t="s">
-        <v>27</v>
+      <c r="N5" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -753,11 +727,11 @@
       <c r="D6" s="3"/>
       <c r="I6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="N6" s="10" t="s">
-        <v>28</v>
+      <c r="N6" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -765,11 +739,11 @@
       <c r="B7" s="3"/>
       <c r="D7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="N7" s="10" t="s">
-        <v>29</v>
+      <c r="N7" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -777,11 +751,11 @@
       <c r="B8" s="3"/>
       <c r="D8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="N8" s="10" t="s">
-        <v>30</v>
+      <c r="N8" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -789,11 +763,11 @@
       <c r="B9" s="3"/>
       <c r="D9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="N9" s="10" t="s">
-        <v>31</v>
+      <c r="N9" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -801,11 +775,11 @@
       <c r="B10" s="3"/>
       <c r="D10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="N10" s="10" t="s">
-        <v>32</v>
+      <c r="N10" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -813,11 +787,11 @@
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="N11" s="10" t="s">
-        <v>33</v>
+      <c r="N11" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1123,70 +1097,70 @@
     </row>
     <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/public/template_excel/template_nghi_phep_di_tre_ve_som.xlsx
+++ b/public/template_excel/template_nghi_phep_di_tre_ve_som.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\FESP\fe-service-portal\public\template_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FESP\fe-service-portal\public\template_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB97A756-73A7-4DFF-A2CB-9FF58A7EB417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62D3C11-8DC8-431D-A77C-8EC7AD331C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/public/template_excel/template_nghi_phep_di_tre_ve_som.xlsx
+++ b/public/template_excel/template_nghi_phep_di_tre_ve_som.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FESP\fe-service-portal\public\template_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62D3C11-8DC8-431D-A77C-8EC7AD331C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAF8753-094D-4D0F-B55B-19246D26D217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>Bộ phận</t>
   </si>
@@ -168,16 +168,58 @@
   </si>
   <si>
     <t>xxx01</t>
+  </si>
+  <si>
+    <t>General Manager</t>
+  </si>
+  <si>
+    <t>General Manager Office</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Purchasing</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>PP&amp;C</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Logistics</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>CMPBU</t>
+  </si>
+  <si>
+    <t>VS Technology Co., Ltd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +255,22 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -253,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -270,9 +328,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -285,7 +340,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,65 +637,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="22" style="10" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="10" customWidth="1"/>
     <col min="9" max="9" width="39.140625" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" customWidth="1"/>
+    <col min="16" max="16" width="0.140625" customWidth="1"/>
+    <col min="17" max="17" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="N1" s="11" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="11"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="14"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -654,267 +731,318 @@
       <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" s="3"/>
-      <c r="G3" s="6">
-        <v>25569.333333333332</v>
-      </c>
-      <c r="H3" s="6">
-        <v>25569.708333333332</v>
-      </c>
       <c r="I3" s="3"/>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="D4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q4" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="D5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="8" t="s">
         <v>24</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="D6" s="3"/>
       <c r="I6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>25</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q6" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="D7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>26</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q7" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="D8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="D9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="8" t="s">
         <v>28</v>
       </c>
       <c r="O9" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q9" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="D10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="8" t="s">
         <v>30</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="D12" s="3"/>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="D13" s="3"/>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="D14" s="3"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="D15" s="3"/>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q18" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q19" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="D21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="D22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="D23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="D24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="D25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="D26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="D27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="D28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="D29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="D30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="D31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="D32" s="3"/>
@@ -1070,15 +1198,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE0BBBB-CCBE-4666-ABA4-CCD817BABA78}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
@@ -1097,7 +1225,7 @@
     </row>
     <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>16</v>
@@ -1108,7 +1236,7 @@
     </row>
     <row r="3" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>17</v>
@@ -1119,7 +1247,7 @@
     </row>
     <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>23</v>
@@ -1129,38 +1257,99 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
